--- a/medicine/Enfance/Le_Cheval_et_son_écuyer/Le_Cheval_et_son_écuyer.xlsx
+++ b/medicine/Enfance/Le_Cheval_et_son_écuyer/Le_Cheval_et_son_écuyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Cheval_et_son_%C3%A9cuyer</t>
+          <t>Le_Cheval_et_son_écuyer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Cheval et son écuyer (en anglais : The Horse and His Boy) est un roman fantastique pour la jeunesse de Clive Staples Lewis, publié en 1954. C'est le cinquième tome de la série Le Monde de Narnia, qui en compte sept. Dans l'ordre de lecture, c'est le troisième.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Cheval_et_son_%C3%A9cuyer</t>
+          <t>Le_Cheval_et_son_écuyer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire commence au Calormen, pays situé au sud de Narnia. Shasta est un jeune garçon élevé par le pêcheur Arsheesh, qui a l'intention de le vendre comme esclave. Shasta s'enfuit avec l'aide de Bree, un cheval qui parle (les chevaux de Calormen sont dépourvus de parole, mais Bree fut capturé à Narnia lorsqu'il était encore poulain). Tous deux décident de se rendre à Narnia. En chemin, ils rencontrent une jeune fille calormène, Aravis, qui fuit un mariage arrangé. Elle aussi est accompagnée d'un cheval qui parle, Hwin. Tous les quatre cheminent vers Narnia pour y vivre en paix et librement.
 Sur la route, ils découvre par hasard que Rabadash, le fils du Tisroc, compte emmener une expédition vers Narnia pour enlever la reine Susan et au passage s'emparer d'Archenland. 
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Cheval_et_son_%C3%A9cuyer</t>
+          <t>Le_Cheval_et_son_écuyer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Shasta/Cor : fils du roi Lune et frère jumeau de Corin, il a été enlevé aux siens mais, grâce à Aslan, a été recueilli par un pêcheur. Celui-ci voulant le vendre à un Tarkhaan, il s'enfuit vers Narnia avec le cheval Bree. En chemin, ils rencontrent Aravis et Hwin. À Tashbaan, la reine Susan et le roi Edmund le confondent avec Corin. Finalement, ils réussissent à atteindre Archenland, où Shasta retrouve son père et devint roi sous le nom de Cor. Une fois adulte, il épouse Aravis.
 Aravis : jeune fille calormène, elle a fui sa famille avec le cheval Hwin pour éviter un mariage forcé avec le vizir du Tisroc, souverain de Calormen. En cherchant à atteindre Narnia, elle croise Shasta et Bree et se joint à eux. En raison de ses origines tarkhaan, Aravis regarde Shasta de haut et se dispute souvent avec lui, mais elle change d'attitude après qu'il l'eut sauvée des griffes d'un lion en risquant sa vie pour elle. Aravis est l'un des rares héros de la série à être une Calormène, ce qui sert souvent de contre-argument à ceux qui prétendent que l'utilisation des Calormènes comme antagonistes est une preuve de racisme.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Cheval_et_son_%C3%A9cuyer</t>
+          <t>Le_Cheval_et_son_écuyer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Liste des chapitres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Comment Shasta se mit en route
